--- a/ExcelConfig/Characters/7000/7000.xlsx
+++ b/ExcelConfig/Characters/7000/7000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ttt\git\FF\ExcelConfig\Characters\7000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BB772E-2367-4B2C-9459-5459F020E252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0EFAB8-FE52-4FE3-BBDB-EACBD8C29E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="3360" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8115" yWindow="3570" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="characters" sheetId="1" r:id="rId1"/>
@@ -716,7 +716,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
